--- a/Code/Results/Cases/Case_0_141/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_141/res_line/loading_percent.xlsx
@@ -424,40 +424,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.073910386941769</v>
+        <v>4.046671948877044</v>
       </c>
       <c r="D2">
-        <v>3.564972323514225</v>
+        <v>6.001736749122584</v>
       </c>
       <c r="E2">
-        <v>9.615797009765197</v>
+        <v>9.252398853523399</v>
       </c>
       <c r="F2">
-        <v>32.27490932440639</v>
+        <v>33.21051778171408</v>
       </c>
       <c r="G2">
-        <v>2.058888247203457</v>
+        <v>3.661432876531466</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>24.07682485161482</v>
+        <v>26.74732431446872</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>22.54130929292787</v>
+        <v>16.44031701738331</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>19.53418508889322</v>
+        <v>16.87421503032314</v>
       </c>
       <c r="N2">
-        <v>11.92888538680481</v>
+        <v>18.59966736151639</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,40 +471,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>3.072289955915328</v>
+        <v>4.04135363498933</v>
       </c>
       <c r="D3">
-        <v>3.679543743335399</v>
+        <v>6.030787101149486</v>
       </c>
       <c r="E3">
-        <v>9.074995917581539</v>
+        <v>9.15387381791747</v>
       </c>
       <c r="F3">
-        <v>30.71064197187562</v>
+        <v>32.97055671414231</v>
       </c>
       <c r="G3">
-        <v>2.069802371629343</v>
+        <v>3.665237526062143</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>23.04497020378832</v>
+        <v>26.6256824473975</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>20.94548551539399</v>
+        <v>15.9831664879608</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>18.15333871324513</v>
+        <v>16.60665352026527</v>
       </c>
       <c r="N3">
-        <v>12.22457851568961</v>
+        <v>18.67559853304753</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,40 +518,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.071176964405716</v>
+        <v>4.038046313733309</v>
       </c>
       <c r="D4">
-        <v>3.750715496729883</v>
+        <v>6.049371864444581</v>
       </c>
       <c r="E4">
-        <v>8.739662633486155</v>
+        <v>9.096084747368538</v>
       </c>
       <c r="F4">
-        <v>29.75341301888491</v>
+        <v>32.83382516377936</v>
       </c>
       <c r="G4">
-        <v>2.076642312119125</v>
+        <v>3.667692909754605</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>22.42014527806653</v>
+        <v>26.55928996400788</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>19.91551704077108</v>
+        <v>15.70056159101154</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>17.26380403539146</v>
+        <v>16.44527072832233</v>
       </c>
       <c r="N4">
-        <v>12.40854197102985</v>
+        <v>18.72420695418237</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,40 +565,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.070698039505643</v>
+        <v>4.036688408236035</v>
       </c>
       <c r="D5">
-        <v>3.779945997881645</v>
+        <v>6.057133949612965</v>
       </c>
       <c r="E5">
-        <v>8.602279224169044</v>
+        <v>9.073238684846725</v>
       </c>
       <c r="F5">
-        <v>29.36447760453494</v>
+        <v>32.78081675403172</v>
       </c>
       <c r="G5">
-        <v>2.07946740619822</v>
+        <v>3.668723619568194</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>22.16790038599487</v>
+        <v>26.53433471359065</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>19.48298437168691</v>
+        <v>15.58510944251621</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>16.89063541547171</v>
+        <v>16.3803217913605</v>
       </c>
       <c r="N5">
-        <v>12.48417225487696</v>
+        <v>18.7445163812341</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,40 +612,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.070617107549887</v>
+        <v>4.036462327520802</v>
       </c>
       <c r="D6">
-        <v>3.784814028447289</v>
+        <v>6.05843424980782</v>
       </c>
       <c r="E6">
-        <v>8.579425977003551</v>
+        <v>9.069488240168694</v>
       </c>
       <c r="F6">
-        <v>29.29997536792221</v>
+        <v>32.77217964625891</v>
       </c>
       <c r="G6">
-        <v>2.079938872111609</v>
+        <v>3.668896590865731</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>22.12616478123499</v>
+        <v>26.53031810721129</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>19.41038300211403</v>
+        <v>15.56592709282868</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>16.82802087507053</v>
+        <v>16.36958884280502</v>
       </c>
       <c r="N6">
-        <v>12.49677234144068</v>
+        <v>18.74791905868233</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,40 +659,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>3.07117060250941</v>
+        <v>4.03802804114252</v>
       </c>
       <c r="D7">
-        <v>3.751108761861068</v>
+        <v>6.04947578204706</v>
       </c>
       <c r="E7">
-        <v>8.737812649779652</v>
+        <v>9.095773759932973</v>
       </c>
       <c r="F7">
-        <v>29.74816257802059</v>
+        <v>32.83309924427751</v>
       </c>
       <c r="G7">
-        <v>2.076680255757932</v>
+        <v>3.667706688153761</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>22.41673352951552</v>
+        <v>26.55894488911507</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>19.90973589537689</v>
+        <v>15.69900546929927</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>17.25881482470114</v>
+        <v>16.44439138778987</v>
       </c>
       <c r="N7">
-        <v>12.40955918517652</v>
+        <v>18.72447882322642</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,40 +706,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>3.073378762008073</v>
+        <v>4.044847106049335</v>
       </c>
       <c r="D8">
-        <v>3.604317449306627</v>
+        <v>6.011598493948291</v>
       </c>
       <c r="E8">
-        <v>9.430053261873899</v>
+        <v>9.217880227984745</v>
       </c>
       <c r="F8">
-        <v>31.73504925593141</v>
+        <v>33.12560613017658</v>
       </c>
       <c r="G8">
-        <v>2.06262449338555</v>
+        <v>3.662720027748371</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>23.71932238790505</v>
+        <v>26.70366981553876</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>22.0013437708424</v>
+        <v>16.28320105559553</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>19.06660110978595</v>
+        <v>16.78140987718592</v>
       </c>
       <c r="N8">
-        <v>12.03037711605991</v>
+        <v>18.6254371327962</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,40 +753,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>3.076578515074857</v>
+        <v>4.057871184766486</v>
       </c>
       <c r="D9">
-        <v>3.32213350536294</v>
+        <v>5.943225292350762</v>
       </c>
       <c r="E9">
-        <v>10.82924459803246</v>
+        <v>9.477704745503909</v>
       </c>
       <c r="F9">
-        <v>35.64735652579296</v>
+        <v>33.78116257855807</v>
       </c>
       <c r="G9">
-        <v>2.036015555383998</v>
+        <v>3.653882481195824</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>26.3376920217004</v>
+        <v>27.05252557242729</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>25.71538462223418</v>
+        <v>17.4056817054261</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>22.29041976323106</v>
+        <v>17.4614842932893</v>
       </c>
       <c r="N9">
-        <v>11.30308261582345</v>
+        <v>18.44690233063252</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,40 +800,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>3.077972001349309</v>
+        <v>4.067207306095294</v>
       </c>
       <c r="D10">
-        <v>3.11722761177708</v>
+        <v>5.896549648090618</v>
       </c>
       <c r="E10">
-        <v>11.97835967704026</v>
+        <v>9.679457644065501</v>
       </c>
       <c r="F10">
-        <v>38.52637997792713</v>
+        <v>34.30946413729905</v>
       </c>
       <c r="G10">
-        <v>2.016819255561975</v>
+        <v>3.647955771991425</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>28.29788167532199</v>
+        <v>27.34723173547359</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>28.22329048077597</v>
+        <v>18.20642623431412</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>24.477869137318</v>
+        <v>17.96769623729232</v>
       </c>
       <c r="N10">
-        <v>10.77449813338771</v>
+        <v>18.3251871522941</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,40 +847,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>3.078339276203218</v>
+        <v>4.071399826126596</v>
       </c>
       <c r="D11">
-        <v>3.024399717629731</v>
+        <v>5.876079599738928</v>
       </c>
       <c r="E11">
-        <v>12.48709554695773</v>
+        <v>9.773245513515535</v>
       </c>
       <c r="F11">
-        <v>39.83845137393845</v>
+        <v>34.55914096171638</v>
       </c>
       <c r="G11">
-        <v>2.008103681255903</v>
+        <v>3.645380886349955</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>29.19851746201893</v>
+        <v>27.48930871000196</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>29.32015320376193</v>
+        <v>18.56366913872255</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>25.43742933553181</v>
+        <v>18.19834289136634</v>
       </c>
       <c r="N11">
-        <v>10.53430478982332</v>
+        <v>18.2718455639287</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,40 +894,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>3.078435081765015</v>
+        <v>4.072979225068574</v>
       </c>
       <c r="D12">
-        <v>2.98930441669529</v>
+        <v>5.868437205198366</v>
       </c>
       <c r="E12">
-        <v>12.6779736307783</v>
+        <v>9.809019025399577</v>
       </c>
       <c r="F12">
-        <v>40.33592032974557</v>
+        <v>34.65495947129221</v>
       </c>
       <c r="G12">
-        <v>2.00479998452675</v>
+        <v>3.644423147971407</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>29.54104348173602</v>
+        <v>27.54422970417544</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>29.72954859424791</v>
+        <v>18.6978022577826</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>25.79604016775977</v>
+        <v>18.28564954261261</v>
       </c>
       <c r="N12">
-        <v>10.44330310186605</v>
+        <v>18.25193631472638</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,40 +941,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>3.078416451888173</v>
+        <v>4.072639444638853</v>
       </c>
       <c r="D13">
-        <v>2.996860132599812</v>
+        <v>5.870078284787591</v>
       </c>
       <c r="E13">
-        <v>12.63693903188563</v>
+        <v>9.801303575503024</v>
       </c>
       <c r="F13">
-        <v>40.22874822085928</v>
+        <v>34.63426789382102</v>
       </c>
       <c r="G13">
-        <v>2.005511741539406</v>
+        <v>3.644628645793425</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>29.46720469174591</v>
+        <v>27.53235224337061</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>29.64163687124735</v>
+        <v>18.66896736193799</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>25.7190121881521</v>
+        <v>18.26684937241904</v>
       </c>
       <c r="N13">
-        <v>10.46290533337656</v>
+        <v>18.25621125073764</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,40 +988,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>3.07834805384618</v>
+        <v>4.071529931052152</v>
       </c>
       <c r="D14">
-        <v>3.021511216116491</v>
+        <v>5.875448670502453</v>
       </c>
       <c r="E14">
-        <v>12.50283313254131</v>
+        <v>9.776183627273802</v>
       </c>
       <c r="F14">
-        <v>39.87936402858274</v>
+        <v>34.56699895836219</v>
       </c>
       <c r="G14">
-        <v>2.007831985997329</v>
+        <v>3.645301746272565</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>29.22666628461263</v>
+        <v>27.49380485320254</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>29.35395166105947</v>
+        <v>18.57472808254825</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>25.46702554119171</v>
+        <v>18.20552683711335</v>
       </c>
       <c r="N14">
-        <v>10.5268194296451</v>
+        <v>18.27020181326996</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,40 +1035,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>3.078300375485335</v>
+        <v>4.070849240728087</v>
       </c>
       <c r="D15">
-        <v>3.036618352904008</v>
+        <v>5.878752387911566</v>
       </c>
       <c r="E15">
-        <v>12.42046685290937</v>
+        <v>9.760829622653516</v>
       </c>
       <c r="F15">
-        <v>39.6654468638736</v>
+        <v>34.52595813510035</v>
       </c>
       <c r="G15">
-        <v>2.009252589179825</v>
+        <v>3.645716291286007</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>29.07952895333659</v>
+        <v>27.47033824192682</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>29.17697122684352</v>
+        <v>18.51685055847223</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>25.31206866892781</v>
+        <v>18.16795801784196</v>
       </c>
       <c r="N15">
-        <v>10.56596018478041</v>
+        <v>18.27880916697621</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,40 +1082,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>3.07794221322248</v>
+        <v>4.066932185493846</v>
       </c>
       <c r="D16">
-        <v>3.123301700521156</v>
+        <v>5.897902719641841</v>
       </c>
       <c r="E16">
-        <v>11.94485093946786</v>
+        <v>9.673366189019246</v>
       </c>
       <c r="F16">
-        <v>38.44070118320645</v>
+        <v>34.29332912366694</v>
       </c>
       <c r="G16">
-        <v>2.017388707569691</v>
+        <v>3.648126476000779</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>28.23921682529334</v>
+        <v>27.33810517853725</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>28.15075269082145</v>
+        <v>18.18292626652116</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>24.41447407629439</v>
+        <v>17.95262282859245</v>
       </c>
       <c r="N16">
-        <v>10.79019355262337</v>
+        <v>18.32871381861643</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,40 +1129,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>3.07765070841312</v>
+        <v>4.06451496327286</v>
       </c>
       <c r="D17">
-        <v>3.176574839649191</v>
+        <v>5.909845845924115</v>
       </c>
       <c r="E17">
-        <v>11.64965295042975</v>
+        <v>9.620203011007753</v>
       </c>
       <c r="F17">
-        <v>37.6901211112659</v>
+        <v>34.15296236258135</v>
       </c>
       <c r="G17">
-        <v>2.022380454866068</v>
+        <v>3.649636008266167</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>27.72610588663842</v>
+        <v>27.25901443108546</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>27.51017743730826</v>
+        <v>17.9761747049515</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>23.8549688895693</v>
+        <v>17.82055307098619</v>
       </c>
       <c r="N17">
-        <v>10.92776232167221</v>
+        <v>18.35984688849613</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,40 +1176,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>3.077458245051173</v>
+        <v>4.063119530632344</v>
       </c>
       <c r="D18">
-        <v>3.207251704393594</v>
+        <v>5.916787059154148</v>
       </c>
       <c r="E18">
-        <v>11.47852839923132</v>
+        <v>9.589815973074163</v>
       </c>
       <c r="F18">
-        <v>37.25860756194675</v>
+        <v>34.07311174951727</v>
       </c>
       <c r="G18">
-        <v>2.025253555109565</v>
+        <v>3.65051566640585</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>27.4318020974044</v>
+        <v>27.21427994448227</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>27.13757013131707</v>
+        <v>17.85660335765821</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>23.52978916301517</v>
+        <v>17.74462975926527</v>
       </c>
       <c r="N18">
-        <v>11.00691815344684</v>
+        <v>18.3779447085864</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,40 +1223,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>3.077388970792246</v>
+        <v>4.062646194965591</v>
       </c>
       <c r="D19">
-        <v>3.217644629653744</v>
+        <v>5.919149590401189</v>
       </c>
       <c r="E19">
-        <v>11.42035247246694</v>
+        <v>9.579561187063238</v>
       </c>
       <c r="F19">
-        <v>37.1125328624908</v>
+        <v>34.04622982139698</v>
       </c>
       <c r="G19">
-        <v>2.026226839221851</v>
+        <v>3.650815467571738</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>27.33229321454827</v>
+        <v>27.19926448977161</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>27.01068592725307</v>
+        <v>17.81601074428741</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>23.41910052523573</v>
+        <v>17.71893295533483</v>
       </c>
       <c r="N19">
-        <v>11.03372658591898</v>
+        <v>18.38410515186437</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,40 +1270,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>3.077684341625949</v>
+        <v>4.064772812352407</v>
       </c>
       <c r="D20">
-        <v>3.170900172994966</v>
+        <v>5.908567048233399</v>
       </c>
       <c r="E20">
-        <v>11.68121373220962</v>
+        <v>9.625842775414165</v>
       </c>
       <c r="F20">
-        <v>37.76999938969314</v>
+        <v>34.16781360831547</v>
       </c>
       <c r="G20">
-        <v>2.021848908972304</v>
+        <v>3.649474135386898</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>27.78064107091124</v>
+        <v>27.26735571936639</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>27.57879637271063</v>
+        <v>17.99825241399721</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>23.91487523776897</v>
+        <v>17.83460865205402</v>
       </c>
       <c r="N20">
-        <v>10.91311538983539</v>
+        <v>18.35651297311687</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,40 +1317,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>3.07836935794711</v>
+        <v>4.071856048072465</v>
       </c>
       <c r="D21">
-        <v>3.014268981676048</v>
+        <v>5.873868299489305</v>
       </c>
       <c r="E21">
-        <v>12.54226917704484</v>
+        <v>9.78355520803979</v>
       </c>
       <c r="F21">
-        <v>39.98196703497423</v>
+        <v>34.5867235694401</v>
       </c>
       <c r="G21">
-        <v>2.007150613231564</v>
+        <v>3.645103571331044</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>29.29727621239477</v>
+        <v>27.50509704648542</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>29.43861047674472</v>
+        <v>18.60244060727741</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>25.54116608765094</v>
+        <v>18.22354036151663</v>
       </c>
       <c r="N21">
-        <v>10.50804822897105</v>
+        <v>18.26608458556701</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,40 +1364,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>3.07856251618208</v>
+        <v>4.076437284478289</v>
       </c>
       <c r="D22">
-        <v>2.912243048270404</v>
+        <v>5.851826735786432</v>
       </c>
       <c r="E22">
-        <v>13.09484686318877</v>
+        <v>9.888119250873073</v>
       </c>
       <c r="F22">
-        <v>41.43143780314182</v>
+        <v>34.8678798231925</v>
       </c>
       <c r="G22">
-        <v>1.997521920506683</v>
+        <v>3.642348027012046</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>30.29724297159175</v>
+        <v>27.66698326584378</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>30.6195552656367</v>
+        <v>18.99057178763337</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>26.57653247508352</v>
+        <v>18.47749192279025</v>
       </c>
       <c r="N22">
-        <v>10.24300672626796</v>
+        <v>18.20867438622344</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,40 +1411,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>3.0784843524449</v>
+        <v>4.073996713310073</v>
       </c>
       <c r="D23">
-        <v>2.966660680522137</v>
+        <v>5.8635327081052</v>
       </c>
       <c r="E23">
-        <v>12.80076618593366</v>
+        <v>9.832185384676224</v>
       </c>
       <c r="F23">
-        <v>40.6573502875969</v>
+        <v>34.71717156234465</v>
       </c>
       <c r="G23">
-        <v>2.002665110930783</v>
+        <v>3.643809520691827</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>29.76265127898002</v>
+        <v>27.57999749475104</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>29.99229146358333</v>
+        <v>18.78407787890014</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>26.02632524431192</v>
+        <v>18.34200297684669</v>
       </c>
       <c r="N23">
-        <v>10.3845206541897</v>
+        <v>18.23916113688768</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,40 +1458,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>3.077669213161947</v>
+        <v>4.064656256631864</v>
       </c>
       <c r="D24">
-        <v>3.173465535739928</v>
+        <v>5.909144959173005</v>
       </c>
       <c r="E24">
-        <v>11.66694951659448</v>
+        <v>9.623292483706981</v>
       </c>
       <c r="F24">
-        <v>37.73388642337179</v>
+        <v>34.1610967129378</v>
       </c>
       <c r="G24">
-        <v>2.022089210238359</v>
+        <v>3.64954728132815</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>27.75598357629933</v>
+        <v>27.26358232850524</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>27.54778727227422</v>
+        <v>17.98827327368555</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>23.88780254525543</v>
+        <v>17.82825410053871</v>
       </c>
       <c r="N24">
-        <v>10.91973705677824</v>
+        <v>18.35801961629755</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,40 +1505,40 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>3.07586137434404</v>
+        <v>4.0543872278063</v>
       </c>
       <c r="D25">
-        <v>3.397982784189932</v>
+        <v>5.961094271185639</v>
       </c>
       <c r="E25">
-        <v>10.40295533780619</v>
+        <v>9.405390827466489</v>
       </c>
       <c r="F25">
-        <v>34.58819472555075</v>
+        <v>33.59536551747615</v>
       </c>
       <c r="G25">
-        <v>2.043133775416111</v>
+        <v>3.656173287463867</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>25.62301130352807</v>
+        <v>26.95130384816489</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>24.75062335785315</v>
+        <v>17.10555978461937</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>21.45125300747114</v>
+        <v>17.27598558566489</v>
       </c>
       <c r="N25">
-        <v>11.4985072877094</v>
+        <v>18.4935326854059</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_141/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_141/res_line/loading_percent.xlsx
@@ -424,40 +424,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.046671948877044</v>
+        <v>3.0739103869419</v>
       </c>
       <c r="D2">
-        <v>6.001736749122584</v>
+        <v>3.564972323514354</v>
       </c>
       <c r="E2">
-        <v>9.252398853523399</v>
+        <v>9.615797009765224</v>
       </c>
       <c r="F2">
-        <v>33.21051778171408</v>
+        <v>32.27490932440636</v>
       </c>
       <c r="G2">
-        <v>3.661432876531466</v>
+        <v>2.058888247203188</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>26.74732431446872</v>
+        <v>24.07682485161478</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>16.44031701738331</v>
+        <v>22.54130929292792</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>16.87421503032314</v>
+        <v>19.53418508889326</v>
       </c>
       <c r="N2">
-        <v>18.59966736151639</v>
+        <v>11.92888538680478</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,40 +471,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.04135363498933</v>
+        <v>3.07228995591546</v>
       </c>
       <c r="D3">
-        <v>6.030787101149486</v>
+        <v>3.679543743335337</v>
       </c>
       <c r="E3">
-        <v>9.15387381791747</v>
+        <v>9.074995917581532</v>
       </c>
       <c r="F3">
-        <v>32.97055671414231</v>
+        <v>30.71064197187561</v>
       </c>
       <c r="G3">
-        <v>3.665237526062143</v>
+        <v>2.069802371629341</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>26.6256824473975</v>
+        <v>23.04497020378831</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>15.9831664879608</v>
+        <v>20.94548551539401</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>16.60665352026527</v>
+        <v>18.15333871324514</v>
       </c>
       <c r="N3">
-        <v>18.67559853304753</v>
+        <v>12.22457851568958</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,40 +518,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.038046313733309</v>
+        <v>3.071176964405727</v>
       </c>
       <c r="D4">
-        <v>6.049371864444581</v>
+        <v>3.750715496729949</v>
       </c>
       <c r="E4">
-        <v>9.096084747368538</v>
+        <v>8.739662633486116</v>
       </c>
       <c r="F4">
-        <v>32.83382516377936</v>
+        <v>29.75341301888518</v>
       </c>
       <c r="G4">
-        <v>3.667692909754605</v>
+        <v>2.076642312119259</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>26.55928996400788</v>
+        <v>22.42014527806676</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>15.70056159101154</v>
+        <v>19.91551704077094</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.44527072832233</v>
+        <v>17.26380403539136</v>
       </c>
       <c r="N4">
-        <v>18.72420695418237</v>
+        <v>12.40854197102998</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,40 +565,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.036688408236035</v>
+        <v>3.070698039505389</v>
       </c>
       <c r="D5">
-        <v>6.057133949612965</v>
+        <v>3.779945997881651</v>
       </c>
       <c r="E5">
-        <v>9.073238684846725</v>
+        <v>8.602279224169072</v>
       </c>
       <c r="F5">
-        <v>32.78081675403172</v>
+        <v>29.36447760453486</v>
       </c>
       <c r="G5">
-        <v>3.668723619568194</v>
+        <v>2.079467406198485</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>26.53433471359065</v>
+        <v>22.16790038599482</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>15.58510944251621</v>
+        <v>19.48298437168696</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>16.3803217913605</v>
+        <v>16.89063541547172</v>
       </c>
       <c r="N5">
-        <v>18.7445163812341</v>
+        <v>12.48417225487695</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,40 +612,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.036462327520802</v>
+        <v>3.07061710754989</v>
       </c>
       <c r="D6">
-        <v>6.05843424980782</v>
+        <v>3.784814028447219</v>
       </c>
       <c r="E6">
-        <v>9.069488240168694</v>
+        <v>8.579425977003529</v>
       </c>
       <c r="F6">
-        <v>32.77217964625891</v>
+        <v>29.29997536792222</v>
       </c>
       <c r="G6">
-        <v>3.668896590865731</v>
+        <v>2.07993887211174</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>26.53031810721129</v>
+        <v>22.126164781235</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>15.56592709282868</v>
+        <v>19.41038300211401</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>16.36958884280502</v>
+        <v>16.82802087507054</v>
       </c>
       <c r="N6">
-        <v>18.74791905868233</v>
+        <v>12.49677234144068</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,40 +659,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.03802804114252</v>
+        <v>3.071170602509028</v>
       </c>
       <c r="D7">
-        <v>6.04947578204706</v>
+        <v>3.751108761861068</v>
       </c>
       <c r="E7">
-        <v>9.095773759932973</v>
+        <v>8.737812649779682</v>
       </c>
       <c r="F7">
-        <v>32.83309924427751</v>
+        <v>29.74816257802036</v>
       </c>
       <c r="G7">
-        <v>3.667706688153761</v>
+        <v>2.076680255758065</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>26.55894488911507</v>
+        <v>22.41673352951531</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>15.69900546929927</v>
+        <v>19.90973589537703</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.44439138778987</v>
+        <v>17.25881482470121</v>
       </c>
       <c r="N7">
-        <v>18.72447882322642</v>
+        <v>12.40955918517638</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,40 +706,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.044847106049335</v>
+        <v>3.07337876200794</v>
       </c>
       <c r="D8">
-        <v>6.011598493948291</v>
+        <v>3.604317449306756</v>
       </c>
       <c r="E8">
-        <v>9.217880227984745</v>
+        <v>9.430053261873903</v>
       </c>
       <c r="F8">
-        <v>33.12560613017658</v>
+        <v>31.73504925593142</v>
       </c>
       <c r="G8">
-        <v>3.662720027748371</v>
+        <v>2.062624493385679</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>26.70366981553876</v>
+        <v>23.71932238790509</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>16.28320105559553</v>
+        <v>22.00134377084234</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>16.78140987718592</v>
+        <v>19.0666011097859</v>
       </c>
       <c r="N8">
-        <v>18.6254371327962</v>
+        <v>12.03037711605994</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,40 +753,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>4.057871184766486</v>
+        <v>3.076578515074972</v>
       </c>
       <c r="D9">
-        <v>5.943225292350762</v>
+        <v>3.322133505362995</v>
       </c>
       <c r="E9">
-        <v>9.477704745503909</v>
+        <v>10.82924459803244</v>
       </c>
       <c r="F9">
-        <v>33.78116257855807</v>
+        <v>35.64735652579294</v>
       </c>
       <c r="G9">
-        <v>3.653882481195824</v>
+        <v>2.036015555384</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>27.05252557242729</v>
+        <v>26.33769202170037</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>17.4056817054261</v>
+        <v>25.71538462223427</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>17.4614842932893</v>
+        <v>22.2904197632311</v>
       </c>
       <c r="N9">
-        <v>18.44690233063252</v>
+        <v>11.30308261582342</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,40 +800,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>4.067207306095294</v>
+        <v>3.077972001349428</v>
       </c>
       <c r="D10">
-        <v>5.896549648090618</v>
+        <v>3.117227611777201</v>
       </c>
       <c r="E10">
-        <v>9.679457644065501</v>
+        <v>11.97835967704024</v>
       </c>
       <c r="F10">
-        <v>34.30946413729905</v>
+        <v>38.52637997792715</v>
       </c>
       <c r="G10">
-        <v>3.647955771991425</v>
+        <v>2.016819255561708</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>27.34723173547359</v>
+        <v>28.29788167532199</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>18.20642623431412</v>
+        <v>28.223290480776</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.96769623729232</v>
+        <v>24.47786913731802</v>
       </c>
       <c r="N10">
-        <v>18.3251871522941</v>
+        <v>10.77449813338768</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,40 +847,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>4.071399826126596</v>
+        <v>3.07833927620321</v>
       </c>
       <c r="D11">
-        <v>5.876079599738928</v>
+        <v>3.024399717630036</v>
       </c>
       <c r="E11">
-        <v>9.773245513515535</v>
+        <v>12.48709554695769</v>
       </c>
       <c r="F11">
-        <v>34.55914096171638</v>
+        <v>39.83845137393842</v>
       </c>
       <c r="G11">
-        <v>3.645380886349955</v>
+        <v>2.008103681255769</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>27.48930871000196</v>
+        <v>29.19851746201891</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>18.56366913872255</v>
+        <v>29.3201532037619</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.19834289136634</v>
+        <v>25.43742933553178</v>
       </c>
       <c r="N11">
-        <v>18.2718455639287</v>
+        <v>10.53430478982335</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,40 +894,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>4.072979225068574</v>
+        <v>3.078435081765114</v>
       </c>
       <c r="D12">
-        <v>5.868437205198366</v>
+        <v>2.989304416695283</v>
       </c>
       <c r="E12">
-        <v>9.809019025399577</v>
+        <v>12.67797363077819</v>
       </c>
       <c r="F12">
-        <v>34.65495947129221</v>
+        <v>40.33592032974547</v>
       </c>
       <c r="G12">
-        <v>3.644423147971407</v>
+        <v>2.004799984526747</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>27.54422970417544</v>
+        <v>29.54104348173596</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>18.6978022577826</v>
+        <v>29.72954859424783</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18.28564954261261</v>
+        <v>25.79604016775964</v>
       </c>
       <c r="N12">
-        <v>18.25193631472638</v>
+        <v>10.4433031018661</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,40 +941,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>4.072639444638853</v>
+        <v>3.078416451888157</v>
       </c>
       <c r="D13">
-        <v>5.870078284787591</v>
+        <v>2.996860132599767</v>
       </c>
       <c r="E13">
-        <v>9.801303575503024</v>
+        <v>12.63693903188563</v>
       </c>
       <c r="F13">
-        <v>34.63426789382102</v>
+        <v>40.22874822085932</v>
       </c>
       <c r="G13">
-        <v>3.644628645793425</v>
+        <v>2.005511741539402</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>27.53235224337061</v>
+        <v>29.46720469174594</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>18.66896736193799</v>
+        <v>29.64163687124747</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.26684937241904</v>
+        <v>25.71901218815217</v>
       </c>
       <c r="N13">
-        <v>18.25621125073764</v>
+        <v>10.46290533337646</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,40 +988,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>4.071529931052152</v>
+        <v>3.078348053846414</v>
       </c>
       <c r="D14">
-        <v>5.875448670502453</v>
+        <v>3.02151121611651</v>
       </c>
       <c r="E14">
-        <v>9.776183627273802</v>
+        <v>12.50283313254134</v>
       </c>
       <c r="F14">
-        <v>34.56699895836219</v>
+        <v>39.87936402858278</v>
       </c>
       <c r="G14">
-        <v>3.645301746272565</v>
+        <v>2.007831985997322</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>27.49380485320254</v>
+        <v>29.22666628461267</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>18.57472808254825</v>
+        <v>29.35395166105954</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.20552683711335</v>
+        <v>25.46702554119177</v>
       </c>
       <c r="N14">
-        <v>18.27020181326996</v>
+        <v>10.52681942964507</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,40 +1035,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>4.070849240728087</v>
+        <v>3.078300375485327</v>
       </c>
       <c r="D15">
-        <v>5.878752387911566</v>
+        <v>3.036618352903888</v>
       </c>
       <c r="E15">
-        <v>9.760829622653516</v>
+        <v>12.42046685290938</v>
       </c>
       <c r="F15">
-        <v>34.52595813510035</v>
+        <v>39.66544686387364</v>
       </c>
       <c r="G15">
-        <v>3.645716291286007</v>
+        <v>2.00925258917996</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>27.47033824192682</v>
+        <v>29.0795289533366</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>18.51685055847223</v>
+        <v>29.17697122684353</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18.16795801784196</v>
+        <v>25.31206866892781</v>
       </c>
       <c r="N15">
-        <v>18.27880916697621</v>
+        <v>10.56596018478035</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,40 +1082,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>4.066932185493846</v>
+        <v>3.077942213222614</v>
       </c>
       <c r="D16">
-        <v>5.897902719641841</v>
+        <v>3.123301700521219</v>
       </c>
       <c r="E16">
-        <v>9.673366189019246</v>
+        <v>11.94485093946786</v>
       </c>
       <c r="F16">
-        <v>34.29332912366694</v>
+        <v>38.44070118320651</v>
       </c>
       <c r="G16">
-        <v>3.648126476000779</v>
+        <v>2.017388707569426</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>27.33810517853725</v>
+        <v>28.23921682529338</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>18.18292626652116</v>
+        <v>28.15075269082147</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.95262282859245</v>
+        <v>24.41447407629439</v>
       </c>
       <c r="N16">
-        <v>18.32871381861643</v>
+        <v>10.79019355262338</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,40 +1129,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>4.06451496327286</v>
+        <v>3.077650708412882</v>
       </c>
       <c r="D17">
-        <v>5.909845845924115</v>
+        <v>3.17657483964914</v>
       </c>
       <c r="E17">
-        <v>9.620203011007753</v>
+        <v>11.64965295042977</v>
       </c>
       <c r="F17">
-        <v>34.15296236258135</v>
+        <v>37.69012111126595</v>
       </c>
       <c r="G17">
-        <v>3.649636008266167</v>
+        <v>2.022380454866072</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>27.25901443108546</v>
+        <v>27.72610588663846</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>17.9761747049515</v>
+        <v>27.51017743730836</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.82055307098619</v>
+        <v>23.85496888956935</v>
       </c>
       <c r="N17">
-        <v>18.35984688849613</v>
+        <v>10.92776232167216</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,40 +1176,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>4.063119530632344</v>
+        <v>3.077458245051173</v>
       </c>
       <c r="D18">
-        <v>5.916787059154148</v>
+        <v>3.207251704393715</v>
       </c>
       <c r="E18">
-        <v>9.589815973074163</v>
+        <v>11.47852839923135</v>
       </c>
       <c r="F18">
-        <v>34.07311174951727</v>
+        <v>37.2586075619468</v>
       </c>
       <c r="G18">
-        <v>3.65051566640585</v>
+        <v>2.025253555109433</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>27.21427994448227</v>
+        <v>27.43180209740443</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>17.85660335765821</v>
+        <v>27.1375701313171</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>17.74462975926527</v>
+        <v>23.52978916301521</v>
       </c>
       <c r="N18">
-        <v>18.3779447085864</v>
+        <v>11.00691815344678</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,40 +1223,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>4.062646194965591</v>
+        <v>3.07738897079212</v>
       </c>
       <c r="D19">
-        <v>5.919149590401189</v>
+        <v>3.217644629653878</v>
       </c>
       <c r="E19">
-        <v>9.579561187063238</v>
+        <v>11.42035247246694</v>
       </c>
       <c r="F19">
-        <v>34.04622982139698</v>
+        <v>37.11253286249073</v>
       </c>
       <c r="G19">
-        <v>3.650815467571738</v>
+        <v>2.026226839222117</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>27.19926448977161</v>
+        <v>27.33229321454825</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>17.81601074428741</v>
+        <v>27.01068592725307</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>17.71893295533483</v>
+        <v>23.41910052523575</v>
       </c>
       <c r="N19">
-        <v>18.38410515186437</v>
+        <v>11.03372658591901</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,40 +1270,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>4.064772812352407</v>
+        <v>3.077684341626187</v>
       </c>
       <c r="D20">
-        <v>5.908567048233399</v>
+        <v>3.170900172994966</v>
       </c>
       <c r="E20">
-        <v>9.625842775414165</v>
+        <v>11.68121373220959</v>
       </c>
       <c r="F20">
-        <v>34.16781360831547</v>
+        <v>37.76999938969322</v>
       </c>
       <c r="G20">
-        <v>3.649474135386898</v>
+        <v>2.021848908972299</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>27.26735571936639</v>
+        <v>27.78064107091128</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>17.99825241399721</v>
+        <v>27.57879637271069</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.83460865205402</v>
+        <v>23.91487523776898</v>
       </c>
       <c r="N20">
-        <v>18.35651297311687</v>
+        <v>10.91311538983536</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,40 +1317,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>4.071856048072465</v>
+        <v>3.078369357947127</v>
       </c>
       <c r="D21">
-        <v>5.873868299489305</v>
+        <v>3.014268981676103</v>
       </c>
       <c r="E21">
-        <v>9.78355520803979</v>
+        <v>12.54226917704482</v>
       </c>
       <c r="F21">
-        <v>34.5867235694401</v>
+        <v>39.98196703497416</v>
       </c>
       <c r="G21">
-        <v>3.645103571331044</v>
+        <v>2.007150613231431</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>27.50509704648542</v>
+        <v>29.29727621239473</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>18.60244060727741</v>
+        <v>29.4386104767447</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.22354036151663</v>
+        <v>25.54116608765091</v>
       </c>
       <c r="N21">
-        <v>18.26608458556701</v>
+        <v>10.50804822897105</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,40 +1364,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>4.076437284478289</v>
+        <v>3.078562516182179</v>
       </c>
       <c r="D22">
-        <v>5.851826735786432</v>
+        <v>2.912243048270465</v>
       </c>
       <c r="E22">
-        <v>9.888119250873073</v>
+        <v>13.09484686318878</v>
       </c>
       <c r="F22">
-        <v>34.8678798231925</v>
+        <v>41.43143780314193</v>
       </c>
       <c r="G22">
-        <v>3.642348027012046</v>
+        <v>1.997521920506688</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>27.66698326584378</v>
+        <v>30.2972429715918</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>18.99057178763337</v>
+        <v>30.61955526563688</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>18.47749192279025</v>
+        <v>26.57653247508365</v>
       </c>
       <c r="N22">
-        <v>18.20867438622344</v>
+        <v>10.24300672626793</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,40 +1411,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>4.073996713310073</v>
+        <v>3.078484352445024</v>
       </c>
       <c r="D23">
-        <v>5.8635327081052</v>
+        <v>2.966660680522007</v>
       </c>
       <c r="E23">
-        <v>9.832185384676224</v>
+        <v>12.80076618593368</v>
       </c>
       <c r="F23">
-        <v>34.71717156234465</v>
+        <v>40.6573502875969</v>
       </c>
       <c r="G23">
-        <v>3.643809520691827</v>
+        <v>2.00266511093079</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>27.57999749475104</v>
+        <v>29.76265127898002</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>18.78407787890014</v>
+        <v>29.99229146358334</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.34200297684669</v>
+        <v>26.02632524431197</v>
       </c>
       <c r="N23">
-        <v>18.23916113688768</v>
+        <v>10.38452065418967</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,40 +1458,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>4.064656256631864</v>
+        <v>3.077669213162194</v>
       </c>
       <c r="D24">
-        <v>5.909144959173005</v>
+        <v>3.173465535739868</v>
       </c>
       <c r="E24">
-        <v>9.623292483706981</v>
+        <v>11.66694951659451</v>
       </c>
       <c r="F24">
-        <v>34.1610967129378</v>
+        <v>37.73388642337182</v>
       </c>
       <c r="G24">
-        <v>3.64954728132815</v>
+        <v>2.022089210238491</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>27.26358232850524</v>
+        <v>27.75598357629936</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>17.98827327368555</v>
+        <v>27.54778727227421</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.82825410053871</v>
+        <v>23.88780254525543</v>
       </c>
       <c r="N24">
-        <v>18.35801961629755</v>
+        <v>10.91973705677815</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,40 +1505,40 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>4.0543872278063</v>
+        <v>3.075861374344169</v>
       </c>
       <c r="D25">
-        <v>5.961094271185639</v>
+        <v>3.39798278419006</v>
       </c>
       <c r="E25">
-        <v>9.405390827466489</v>
+        <v>10.40295533780617</v>
       </c>
       <c r="F25">
-        <v>33.59536551747615</v>
+        <v>34.58819472555075</v>
       </c>
       <c r="G25">
-        <v>3.656173287463867</v>
+        <v>2.043133775415842</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>26.95130384816489</v>
+        <v>25.62301130352807</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>17.10555978461937</v>
+        <v>24.75062335785316</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>17.27598558566489</v>
+        <v>21.45125300747117</v>
       </c>
       <c r="N25">
-        <v>18.4935326854059</v>
+        <v>11.4985072877094</v>
       </c>
       <c r="O25">
         <v>0</v>
